--- a/tests/output/3_a_CBA Everyday Offset Account #9158_RecentBalance_output.xlsx
+++ b/tests/output/3_a_CBA Everyday Offset Account #9158_RecentBalance_output.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="All_Text" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table_1_Page_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table_2_Page_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="All_Text_Fallback" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table_pdfplumber_1_P1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table_pdfplumber_2_P2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,7 +469,7 @@
 Refund from KS Driving school
 Created 04/04/25 02:29pm (Sydney/Melbourne time)
 While this letter is accurate at the time it’s produced,
-we’re not responsible for any reliance on this information. Transaction Summary v1.0.5\n\n--- End of Page 1 ---\n\nAccount Number 062271 10319158
+we’re not responsible for any reliance on this information. Transaction Summary v1.0.5Account Number 062271 10319158
 Page 2 of 2
 Date Transaction details Amount Balance
 18 Mar 2025 MCDONALDS ST MARYS S ST MARYS SOUT NS AUS -$0.50 $2,834.40
@@ -508,7 +508,7 @@
 The CommBank Team.
 Created 04/04/25 02:29pm (Sydney/Melbourne time)
 While this letter is accurate at the time it’s produced,
-we’re not responsible for any reliance on this information. Transaction Summary v1.0.5\n\n--- End of Page 2 ---\n\n</t>
+we’re not responsible for any reliance on this information. Transaction Summary v1.0.5</t>
         </is>
       </c>
     </row>
